--- a/medicine/Enfance/Lieu_d'accueil_enfants-parents/Lieu_d'accueil_enfants-parents.xlsx
+++ b/medicine/Enfance/Lieu_d'accueil_enfants-parents/Lieu_d'accueil_enfants-parents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lieu_d%27accueil_enfants-parents</t>
+          <t>Lieu_d'accueil_enfants-parents</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les lieux d’accueil enfants-parents (ou LAEP) sont des lieux associatifs permettant l'accueil des enfants de moins de 6 ans accompagnés de leurs parents. Ces lieux permettent un soutien aux parents et permettent une socialisation de l'enfant[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les lieux d’accueil enfants-parents (ou LAEP) sont des lieux associatifs permettant l'accueil des enfants de moins de 6 ans accompagnés de leurs parents. Ces lieux permettent un soutien aux parents et permettent une socialisation de l'enfant.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lieu_d%27accueil_enfants-parents</t>
+          <t>Lieu_d'accueil_enfants-parents</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les lieux d'accueil enfants-parents sont inspirés du dispositif des  maisons vertes créée par Françoise Dolto et cinq autres psychanalystes en 1979 et du club parents-enfants créé en 1976 par les psychanalystes de l'Institut de recherche appliquée pour l'enfant et le couple (IRAEC) dans le 18e arrondissement de Paris[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les lieux d'accueil enfants-parents sont inspirés du dispositif des  maisons vertes créée par Françoise Dolto et cinq autres psychanalystes en 1979 et du club parents-enfants créé en 1976 par les psychanalystes de l'Institut de recherche appliquée pour l'enfant et le couple (IRAEC) dans le 18e arrondissement de Paris.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lieu_d%27accueil_enfants-parents</t>
+          <t>Lieu_d'accueil_enfants-parents</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les lieux d'accueil enfants-parents sont ouverts aux enfants âgés de moins de six ans accompagnés par un adulte, parent ou personne de son entourage, afin de participer à des temps conviviaux autour de jeux et d’échanges. Ce sont des lieux de ressources, libres de fréquentation et où l’anonymat est respecté. Dans la plupart des structures, l'entrée est gratuite.
-Néanmoins dans certains lieux, une participation financière symbolique peut être demandée. Les professionnels accueillants sont des personnes formées à l'écoute. Les objectifs principaux des lieux d'accueil enfants-parents sont de participer à l'éveil et à la socialisation de l'enfant et d'apporter un appui aux parents dans l'exercice de leur pratique parentale en favorisant l'échange avec d'autres parents ou des professionnels[3].
+Néanmoins dans certains lieux, une participation financière symbolique peut être demandée. Les professionnels accueillants sont des personnes formées à l'écoute. Les objectifs principaux des lieux d'accueil enfants-parents sont de participer à l'éveil et à la socialisation de l'enfant et d'apporter un appui aux parents dans l'exercice de leur pratique parentale en favorisant l'échange avec d'autres parents ou des professionnels.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lieu_d%27accueil_enfants-parents</t>
+          <t>Lieu_d'accueil_enfants-parents</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>En France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, les lieux d'accueil enfants-parents sont soutenus par la Caisse d'allocations familiales à travers une prestation de service[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, les lieux d'accueil enfants-parents sont soutenus par la Caisse d'allocations familiales à travers une prestation de service.
 </t>
         </is>
       </c>
